--- a/Daily Scrum Meeting Log.xlsx
+++ b/Daily Scrum Meeting Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erin.adcock/Desktop/ECU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmdance/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACA55305-19D9-0A45-B686-0743FDE2EDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CDE059-2074-504D-BB9F-072557E2FC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16940" tabRatio="920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16940" tabRatio="920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Daily SCRUM Standup" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="40">
   <si>
     <t>Question</t>
   </si>
@@ -131,6 +131,39 @@
   </si>
   <si>
     <t>Week: xx/xx/202x-xx/xx/202x</t>
+  </si>
+  <si>
+    <t>Week: 02/09/2025-02/15/2025</t>
+  </si>
+  <si>
+    <t>Whitley</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Met with Dr. Bowman to discuss Sprint 1</t>
+  </si>
+  <si>
+    <t>Put contraints in project report</t>
+  </si>
+  <si>
+    <t>Type up Executive Summary</t>
+  </si>
+  <si>
+    <t>Limited availability</t>
+  </si>
+  <si>
+    <t>Work schedule conflicts</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Project Plan, Form Project Report, Executive Summary</t>
+  </si>
+  <si>
+    <t>Fix Burn Down Chart, Update Project Report</t>
   </si>
 </sst>
 </file>
@@ -659,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0DDBE2-45CA-43D5-8BC7-C6D50BFB0F7D}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1091,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -1159,9 +1192,13 @@
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1177,9 +1214,13 @@
     </row>
     <row r="4" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
@@ -1195,9 +1236,13 @@
     </row>
     <row r="5" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1213,9 +1258,13 @@
     </row>
     <row r="6" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
@@ -1233,9 +1282,13 @@
       <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1251,9 +1304,13 @@
     </row>
     <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
@@ -1269,9 +1326,13 @@
     </row>
     <row r="9" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1287,9 +1348,13 @@
     </row>
     <row r="10" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1307,9 +1372,13 @@
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1325,9 +1394,13 @@
     </row>
     <row r="12" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1343,9 +1416,13 @@
     </row>
     <row r="13" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1361,9 +1438,13 @@
     </row>
     <row r="14" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
@@ -2929,17 +3010,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3fb62006-019d-4ab3-a043-cc784d27d378">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="36e53234-7dc7-4681-a7d9-50127b75780f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E4346FE2FED0341A708AB6502F6E6A5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34b17b737fb9fa7f981d5526344aa72f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3fb62006-019d-4ab3-a043-cc784d27d378" xmlns:ns3="36e53234-7dc7-4681-a7d9-50127b75780f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5dd9d3adccad994d0e93dbf36e333455" ns2:_="" ns3:_="">
     <xsd:import namespace="3fb62006-019d-4ab3-a043-cc784d27d378"/>
@@ -3134,6 +3204,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3fb62006-019d-4ab3-a043-cc784d27d378">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="36e53234-7dc7-4681-a7d9-50127b75780f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3144,17 +3225,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C322C5C-C623-44FC-B5C5-284C8147B03A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb62006-019d-4ab3-a043-cc784d27d378"/>
-    <ds:schemaRef ds:uri="36e53234-7dc7-4681-a7d9-50127b75780f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA2C6612-6E37-430A-A655-6A73CE29EDDA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3173,6 +3243,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C322C5C-C623-44FC-B5C5-284C8147B03A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb62006-019d-4ab3-a043-cc784d27d378"/>
+    <ds:schemaRef ds:uri="36e53234-7dc7-4681-a7d9-50127b75780f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C05DFF86-EFEF-4F94-88FC-6D8A6F89AFC2}">
   <ds:schemaRefs>
